--- a/Data/cdr_gap_data.xlsx
+++ b/Data/cdr_gap_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="0" windowWidth="13125" windowHeight="5610" activeTab="2"/>
+    <workbookView xWindow="7215" yWindow="0" windowWidth="13125" windowHeight="5610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="15" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3113" uniqueCount="896">
   <si>
     <t>Albania</t>
   </si>
@@ -2454,9 +2454,6 @@
     <t>Estrategia climática de largo plazo de Chile - Camino a la carbono neutralidad y resiliencia a más tardar al 2050</t>
   </si>
   <si>
-    <t>BECCS included within 'Industry' and 'Electricity' sectors (as noted in footnotes to Table 4, Page 34). The 'true' level of residuals is therefore likely higher than depicted. A partial correction is possible, as the electricity sector is net-negative, meaning a minimum bound for BECCS, equal to the extent of net-negative emissions within the electricity sector, can be subtracted from residual emission totals.</t>
-  </si>
-  <si>
     <t>Canada's LT-LEDS includes, on Page 18, the assumption that LULUCF reaches a contribution of -100 MtCO2 across all modelled scenarios. This would appear to be an increase upon 2019 and 2030 modelling, shown in the Figure on Page 12, and the accompanying Table on Page 13.</t>
   </si>
   <si>
@@ -2739,7 +2736,23 @@
     <t>Powis et al. 2022</t>
   </si>
   <si>
-    <t>doi</t>
+    <t>The new leaked assessment (Feb 2024) indicates far lower industrial removal values. We therefore do not consider this scenario.</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassi, G. et al. Carbon fluxes from land 2000–2020: bringing clarity to countries’ reporting. Earth Syst. Sci. Data 14, 4643–4666 (2022).
+</t>
+  </si>
+  <si>
+    <t>Powis, C. M., Smith, S. M., Minx, J. C. &amp; Gasser, T. Quantifying global carbon dioxide removal deployment. Environ. Res. Lett. (2023) doi:10.1088/1748-9326/acb450.</t>
+  </si>
+  <si>
+    <t>Currently un-published</t>
+  </si>
+  <si>
+    <t>Smith, H., Vaughan, N. E. &amp; Forster, J. Navigating Net Zero: Analysing Residual Emissions in Long-Term National Climate Strategies. Preprint at http://dx.doi.org/10.2139/ssrn.4678157 (2024).</t>
   </si>
 </sst>
 </file>
@@ -2932,7 +2945,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2986,6 +2999,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 3 2" xfId="1"/>
@@ -3007,7 +3024,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:S110" totalsRowShown="0">
-  <autoFilter ref="A1:S110"/>
+  <autoFilter ref="A1:S110">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" name="Country"/>
     <tableColumn id="2" name="ISO"/>
@@ -3379,20 +3402,21 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="194.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C1" t="s">
         <v>891</v>
@@ -3400,34 +3424,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B2" t="s">
-        <v>884</v>
+        <v>883</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B3" t="s">
         <v>887</v>
       </c>
-      <c r="B3" t="s">
-        <v>888</v>
+      <c r="C3" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B4" t="s">
         <v>889</v>
       </c>
-      <c r="B4" t="s">
-        <v>890</v>
+      <c r="C4" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B5" t="s">
         <v>885</v>
       </c>
-      <c r="B5" t="s">
-        <v>886</v>
+      <c r="C5" t="s">
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -3439,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3471,7 +3507,7 @@
         <v>405</v>
       </c>
       <c r="G1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3499,7 +3535,7 @@
         <v>-2.0412519999999999E-3</v>
       </c>
       <c r="J2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3611,7 +3647,7 @@
         <v>428</v>
       </c>
       <c r="K6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3632,22 +3668,22 @@
       </c>
       <c r="F7" s="1">
         <f>planned_cdr_ltleds_reanalysed!T119</f>
-        <v>-3846.7902684498308</v>
+        <v>-3846.0877371106976</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>-3.8467902684498307</v>
+        <v>-3.8460877371106976</v>
       </c>
       <c r="I7" t="s">
         <v>429</v>
       </c>
       <c r="J7" s="3">
         <f>SUM(G7,G9)</f>
-        <v>-4.5511902684498304</v>
+        <v>-4.5504877371106973</v>
       </c>
       <c r="K7" s="4">
         <f>G7/J7</f>
-        <v>0.8452273013318945</v>
+        <v>0.84520340660290316</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3668,22 +3704,22 @@
       </c>
       <c r="F8" s="1">
         <f>planned_cdr_ltleds_reanalysed!T118</f>
-        <v>-3871.2229875620728</v>
+        <v>-3997.925518901206</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>-3.8712229875620729</v>
+        <v>-3.997925518901206</v>
       </c>
       <c r="I8" t="s">
         <v>430</v>
       </c>
       <c r="J8" s="3">
         <f>SUM(G8,G10)</f>
-        <v>-4.8229229875620732</v>
+        <v>-4.9596255189012055</v>
       </c>
       <c r="K8" s="4">
         <f>G8/J8</f>
-        <v>0.8026715329159605</v>
+        <v>0.80609423103922928</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3730,18 +3766,18 @@
       </c>
       <c r="F10" s="1">
         <f>planned_cdr_ltleds_reanalysed!G113</f>
-        <v>-951.7</v>
+        <v>-961.7</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>-0.95169999999999999</v>
+        <v>-0.9617</v>
       </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="J11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3762,7 +3798,7 @@
       </c>
       <c r="J13" s="3">
         <f>G7-G4</f>
-        <v>-0.83649332904079676</v>
+        <v>-0.83579079770166365</v>
       </c>
       <c r="K13" s="4">
         <f>G9-G2</f>
@@ -3770,7 +3806,7 @@
       </c>
       <c r="L13" s="3">
         <f>SUM(G7,G9)-SUM(G2,G4)</f>
-        <v>-1.5388520770407963</v>
+        <v>-1.5381495457016632</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3779,15 +3815,15 @@
       </c>
       <c r="J14" s="3">
         <f>G8-G4</f>
-        <v>-0.86092604815303897</v>
+        <v>-0.98762857949217198</v>
       </c>
       <c r="K14" s="4">
         <f>G10-G2</f>
-        <v>-0.94965874799999994</v>
+        <v>-0.95965874799999995</v>
       </c>
       <c r="L14" s="3">
         <f>SUM(G8,G10)-SUM(G2,G4)</f>
-        <v>-1.810584796153039</v>
+        <v>-1.9472873274921714</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3811,11 +3847,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3843,52 +3879,52 @@
         <v>408</v>
       </c>
       <c r="D1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1" t="s">
+        <v>837</v>
+      </c>
+      <c r="H1" t="s">
+        <v>836</v>
+      </c>
+      <c r="I1" t="s">
+        <v>835</v>
+      </c>
+      <c r="J1" t="s">
         <v>841</v>
       </c>
-      <c r="E1" t="s">
-        <v>840</v>
-      </c>
-      <c r="F1" t="s">
-        <v>839</v>
-      </c>
-      <c r="G1" t="s">
-        <v>838</v>
-      </c>
-      <c r="H1" t="s">
-        <v>837</v>
-      </c>
-      <c r="I1" t="s">
-        <v>836</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>842</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>843</v>
       </c>
-      <c r="L1" t="s">
-        <v>844</v>
-      </c>
       <c r="M1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Q1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3902,7 +3938,7 @@
         <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E2" s="6">
         <v>44510</v>
@@ -3917,7 +3953,7 @@
         <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K2">
         <v>0.14000000000000001</v>
@@ -3929,26 +3965,26 @@
         <v>658</v>
       </c>
       <c r="N2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O2" t="s">
         <v>242</v>
       </c>
       <c r="P2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Q2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S2" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>255</v>
       </c>
@@ -3959,7 +3995,7 @@
         <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E3" s="6">
         <v>44871</v>
@@ -4007,7 +4043,7 @@
         <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E4" s="6">
         <v>44498</v>
@@ -4022,7 +4058,7 @@
         <v>242</v>
       </c>
       <c r="I4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J4">
         <v>43</v>
@@ -4037,7 +4073,7 @@
         <v>662</v>
       </c>
       <c r="N4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O4" t="s">
         <v>652</v>
@@ -4046,7 +4082,7 @@
         <v>652</v>
       </c>
       <c r="R4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S4" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -4064,7 +4100,7 @@
         <v>243</v>
       </c>
       <c r="D5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E5" s="6">
         <v>44498</v>
@@ -4079,7 +4115,7 @@
         <v>242</v>
       </c>
       <c r="I5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J5">
         <v>54</v>
@@ -4094,74 +4130,74 @@
         <v>662</v>
       </c>
       <c r="N5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O5" t="s">
         <v>652</v>
       </c>
       <c r="P5" t="s">
         <v>652</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>831</v>
       </c>
       <c r="S5" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E6" s="23">
+        <v>44498</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="J6" s="7">
+        <v>64</v>
+      </c>
+      <c r="K6" s="7">
+        <v>204</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="S6" s="7" t="str">
+        <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAX</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" t="s">
-        <v>824</v>
-      </c>
-      <c r="E6" s="6">
-        <v>44498</v>
-      </c>
-      <c r="F6" t="s">
-        <v>655</v>
-      </c>
-      <c r="G6" t="s">
-        <v>654</v>
-      </c>
-      <c r="H6" t="s">
-        <v>242</v>
-      </c>
-      <c r="I6" t="s">
-        <v>823</v>
-      </c>
-      <c r="J6">
-        <v>64</v>
-      </c>
-      <c r="K6">
-        <v>204</v>
-      </c>
-      <c r="L6" t="s">
-        <v>652</v>
-      </c>
-      <c r="M6" t="s">
-        <v>662</v>
-      </c>
-      <c r="N6" t="s">
-        <v>822</v>
-      </c>
-      <c r="O6" t="s">
-        <v>652</v>
-      </c>
-      <c r="P6" t="s">
-        <v>652</v>
-      </c>
-      <c r="S6" t="str">
-        <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
-        <v/>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4175,7 +4211,7 @@
         <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E7" s="6">
         <v>44498</v>
@@ -4190,7 +4226,7 @@
         <v>242</v>
       </c>
       <c r="I7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J7">
         <v>216</v>
@@ -4205,7 +4241,7 @@
         <v>667</v>
       </c>
       <c r="N7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O7" t="s">
         <v>652</v>
@@ -4229,7 +4265,7 @@
         <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E8" s="6">
         <v>44176</v>
@@ -4244,7 +4280,7 @@
         <v>242</v>
       </c>
       <c r="I8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J8">
         <v>8.8000000000000007</v>
@@ -4259,7 +4295,7 @@
         <v>658</v>
       </c>
       <c r="N8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O8" t="s">
         <v>652</v>
@@ -4268,10 +4304,10 @@
         <v>652</v>
       </c>
       <c r="Q8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S8" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -4289,7 +4325,7 @@
         <v>242</v>
       </c>
       <c r="D9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E9" s="6">
         <v>44176</v>
@@ -4304,7 +4340,7 @@
         <v>242</v>
       </c>
       <c r="I9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J9">
         <v>18.3</v>
@@ -4319,7 +4355,7 @@
         <v>658</v>
       </c>
       <c r="N9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O9" t="s">
         <v>652</v>
@@ -4328,10 +4364,10 @@
         <v>652</v>
       </c>
       <c r="Q9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S9" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -4349,7 +4385,7 @@
         <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E10" s="6">
         <v>44176</v>
@@ -4364,7 +4400,7 @@
         <v>242</v>
       </c>
       <c r="I10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J10">
         <v>18.7</v>
@@ -4376,7 +4412,7 @@
         <v>667</v>
       </c>
       <c r="N10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O10" t="s">
         <v>652</v>
@@ -4385,10 +4421,10 @@
         <v>652</v>
       </c>
       <c r="Q10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S10" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -4406,7 +4442,7 @@
         <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E11" s="6">
         <v>44176</v>
@@ -4421,7 +4457,7 @@
         <v>242</v>
       </c>
       <c r="I11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K11">
         <v>17</v>
@@ -4433,7 +4469,7 @@
         <v>662</v>
       </c>
       <c r="N11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O11" t="s">
         <v>652</v>
@@ -4442,17 +4478,17 @@
         <v>652</v>
       </c>
       <c r="Q11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S11" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -4463,7 +4499,7 @@
         <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E12" s="6">
         <v>44175</v>
@@ -4496,17 +4532,17 @@
         <v>652</v>
       </c>
       <c r="Q12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S12" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MIN</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -4517,7 +4553,7 @@
         <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E13" s="6">
         <v>44175</v>
@@ -4550,10 +4586,10 @@
         <v>652</v>
       </c>
       <c r="Q13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S13" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -4571,7 +4607,7 @@
         <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E14" s="6">
         <v>45049</v>
@@ -4586,7 +4622,7 @@
         <v>242</v>
       </c>
       <c r="I14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K14">
         <v>8.4049999999999994</v>
@@ -4598,20 +4634,20 @@
         <v>667</v>
       </c>
       <c r="N14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O14" t="s">
         <v>242</v>
       </c>
       <c r="P14" t="s">
-        <v>811</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>831</v>
+        <v>810</v>
+      </c>
+      <c r="R14" t="s">
+        <v>829</v>
       </c>
       <c r="S14" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
-        <v>MAX</v>
+        <v>MIN</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -4625,7 +4661,7 @@
         <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E15" s="6">
         <v>45049</v>
@@ -4640,7 +4676,7 @@
         <v>242</v>
       </c>
       <c r="I15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K15">
         <v>10.657999999999999</v>
@@ -4652,23 +4688,23 @@
         <v>667</v>
       </c>
       <c r="N15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O15" t="s">
         <v>242</v>
       </c>
       <c r="P15" t="s">
-        <v>811</v>
-      </c>
-      <c r="R15" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q15" t="s">
         <v>830</v>
       </c>
       <c r="S15" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
-        <v>MIN</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>MAX</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>264</v>
       </c>
@@ -4679,7 +4715,7 @@
         <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E16" s="6">
         <v>42716</v>
@@ -4727,7 +4763,7 @@
         <v>243</v>
       </c>
       <c r="D17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E17" s="6">
         <v>45191</v>
@@ -4742,7 +4778,7 @@
         <v>242</v>
       </c>
       <c r="I17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K17">
         <v>7.2545799999999998</v>
@@ -4754,13 +4790,13 @@
         <v>667</v>
       </c>
       <c r="N17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S17" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -4778,7 +4814,7 @@
         <v>243</v>
       </c>
       <c r="D18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E18" s="6">
         <v>45126</v>
@@ -4793,7 +4829,7 @@
         <v>242</v>
       </c>
       <c r="I18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K18">
         <v>6.8</v>
@@ -4805,19 +4841,19 @@
         <v>662</v>
       </c>
       <c r="N18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O18" t="s">
         <v>242</v>
       </c>
       <c r="P18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S18" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -4835,7 +4871,7 @@
         <v>243</v>
       </c>
       <c r="D19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E19" s="6">
         <v>44560</v>
@@ -4850,7 +4886,7 @@
         <v>242</v>
       </c>
       <c r="I19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K19">
         <v>50.2</v>
@@ -4862,7 +4898,7 @@
         <v>662</v>
       </c>
       <c r="N19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="O19" t="s">
         <v>652</v>
@@ -4871,17 +4907,17 @@
         <v>652</v>
       </c>
       <c r="Q19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S19" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4892,7 +4928,7 @@
         <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E20" s="6">
         <v>44865</v>
@@ -4904,10 +4940,10 @@
         <v>654</v>
       </c>
       <c r="H20" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J20">
         <v>149</v>
@@ -4922,26 +4958,20 @@
         <v>662</v>
       </c>
       <c r="N20" t="s">
-        <v>797</v>
-      </c>
-      <c r="O20" t="s">
-        <v>242</v>
-      </c>
-      <c r="P20" t="s">
         <v>796</v>
       </c>
       <c r="Q20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S20" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4952,7 +4982,7 @@
         <v>243</v>
       </c>
       <c r="D21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E21" s="6">
         <v>44865</v>
@@ -4964,10 +4994,10 @@
         <v>654</v>
       </c>
       <c r="H21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J21">
         <v>39</v>
@@ -4982,26 +5012,20 @@
         <v>662</v>
       </c>
       <c r="N21" t="s">
-        <v>797</v>
-      </c>
-      <c r="O21" t="s">
-        <v>242</v>
-      </c>
-      <c r="P21" t="s">
         <v>796</v>
       </c>
       <c r="Q21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S21" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -5012,7 +5036,7 @@
         <v>243</v>
       </c>
       <c r="D22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E22" s="6">
         <v>44865</v>
@@ -5024,10 +5048,10 @@
         <v>654</v>
       </c>
       <c r="H22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I22" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J22">
         <v>149</v>
@@ -5042,26 +5066,20 @@
         <v>662</v>
       </c>
       <c r="N22" t="s">
-        <v>797</v>
-      </c>
-      <c r="O22" t="s">
-        <v>242</v>
-      </c>
-      <c r="P22" t="s">
         <v>796</v>
       </c>
       <c r="Q22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S22" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -5072,7 +5090,7 @@
         <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E23" s="6">
         <v>44865</v>
@@ -5084,10 +5102,10 @@
         <v>654</v>
       </c>
       <c r="H23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I23" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J23">
         <v>24</v>
@@ -5102,23 +5120,17 @@
         <v>662</v>
       </c>
       <c r="N23" t="s">
-        <v>797</v>
-      </c>
-      <c r="O23" t="s">
-        <v>242</v>
-      </c>
-      <c r="P23" t="s">
         <v>796</v>
       </c>
       <c r="Q23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S23" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -5129,7 +5141,7 @@
         <v>243</v>
       </c>
       <c r="D24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E24" s="6">
         <v>44865</v>
@@ -5141,10 +5153,10 @@
         <v>654</v>
       </c>
       <c r="H24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I24" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J24">
         <v>115</v>
@@ -5159,26 +5171,20 @@
         <v>662</v>
       </c>
       <c r="N24" t="s">
-        <v>797</v>
-      </c>
-      <c r="O24" t="s">
-        <v>242</v>
-      </c>
-      <c r="P24" t="s">
         <v>796</v>
       </c>
       <c r="Q24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S24" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -5189,7 +5195,7 @@
         <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E25" s="6">
         <v>44865</v>
@@ -5201,10 +5207,10 @@
         <v>654</v>
       </c>
       <c r="H25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I25" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J25">
         <v>24</v>
@@ -5219,26 +5225,20 @@
         <v>662</v>
       </c>
       <c r="N25" t="s">
-        <v>797</v>
-      </c>
-      <c r="O25" t="s">
-        <v>242</v>
-      </c>
-      <c r="P25" t="s">
         <v>796</v>
       </c>
       <c r="Q25" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R25" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S25" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MIN</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>243</v>
       </c>
       <c r="D26" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E26" s="6">
         <v>44865</v>
@@ -5261,10 +5261,10 @@
         <v>654</v>
       </c>
       <c r="H26" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I26" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J26">
         <v>226</v>
@@ -5279,26 +5279,20 @@
         <v>662</v>
       </c>
       <c r="N26" t="s">
-        <v>797</v>
-      </c>
-      <c r="O26" t="s">
-        <v>242</v>
-      </c>
-      <c r="P26" t="s">
         <v>796</v>
       </c>
       <c r="Q26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S26" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAX</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -5309,7 +5303,7 @@
         <v>243</v>
       </c>
       <c r="D27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E27" s="6">
         <v>44865</v>
@@ -5321,10 +5315,10 @@
         <v>654</v>
       </c>
       <c r="H27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I27" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J27">
         <v>77</v>
@@ -5339,19 +5333,13 @@
         <v>662</v>
       </c>
       <c r="N27" t="s">
-        <v>797</v>
-      </c>
-      <c r="O27" t="s">
-        <v>242</v>
-      </c>
-      <c r="P27" t="s">
         <v>796</v>
       </c>
       <c r="Q27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S27" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -5405,17 +5393,17 @@
         <v>652</v>
       </c>
       <c r="Q28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S28" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>273</v>
       </c>
@@ -5654,10 +5642,10 @@
         <v>652</v>
       </c>
       <c r="Q33" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R33" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S33" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -5714,17 +5702,17 @@
         <v>784</v>
       </c>
       <c r="Q34" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S34" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>783</v>
       </c>
@@ -5768,17 +5756,17 @@
         <v>652</v>
       </c>
       <c r="Q35" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R35" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S35" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>282</v>
       </c>
@@ -5822,10 +5810,10 @@
         <v>652</v>
       </c>
       <c r="Q36" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R36" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S36" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -5876,10 +5864,10 @@
         <v>652</v>
       </c>
       <c r="Q37" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S37" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -5933,10 +5921,10 @@
         <v>652</v>
       </c>
       <c r="Q38" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S38" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -5990,10 +5978,10 @@
         <v>652</v>
       </c>
       <c r="Q39" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R39" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S39" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -6049,15 +6037,12 @@
       <c r="P40" t="s">
         <v>769</v>
       </c>
-      <c r="Q40" t="s">
-        <v>831</v>
-      </c>
       <c r="R40" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="S40" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
-        <v>MAX</v>
+        <v>MIN</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -6107,14 +6092,11 @@
         <v>652</v>
       </c>
       <c r="Q41" t="s">
-        <v>845</v>
-      </c>
-      <c r="R41" t="s">
         <v>830</v>
       </c>
       <c r="S41" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
-        <v>MIN</v>
+        <v>MAX</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -6167,17 +6149,17 @@
         <v>652</v>
       </c>
       <c r="Q42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S42" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -6272,7 +6254,7 @@
         <v>652</v>
       </c>
       <c r="Q44" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="S44" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -6326,14 +6308,14 @@
         <v>652</v>
       </c>
       <c r="R45" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S45" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MIN</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>296</v>
       </c>
@@ -6377,17 +6359,17 @@
         <v>652</v>
       </c>
       <c r="Q46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S46" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>300</v>
       </c>
@@ -6485,10 +6467,10 @@
         <v>652</v>
       </c>
       <c r="Q48" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R48" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S48" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -6644,7 +6626,7 @@
         <v>652</v>
       </c>
       <c r="Q51" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="S51" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -6698,14 +6680,14 @@
         <v>652</v>
       </c>
       <c r="R52" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S52" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MIN</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -6800,17 +6782,17 @@
         <v>744</v>
       </c>
       <c r="Q54" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R54" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S54" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>310</v>
       </c>
@@ -6854,10 +6836,10 @@
         <v>652</v>
       </c>
       <c r="Q55" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R55" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S55" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -6892,6 +6874,9 @@
       <c r="I56" t="s">
         <v>739</v>
       </c>
+      <c r="J56">
+        <v>20</v>
+      </c>
       <c r="K56">
         <v>45</v>
       </c>
@@ -6911,17 +6896,17 @@
         <v>652</v>
       </c>
       <c r="Q56" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R56" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S56" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -6969,7 +6954,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>320</v>
       </c>
@@ -7013,17 +6998,17 @@
         <v>652</v>
       </c>
       <c r="Q58" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R58" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S58" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>326</v>
       </c>
@@ -7067,17 +7052,17 @@
         <v>652</v>
       </c>
       <c r="Q59" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R59" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S59" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>327</v>
       </c>
@@ -7121,17 +7106,17 @@
         <v>652</v>
       </c>
       <c r="Q60" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R60" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S60" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>333</v>
       </c>
@@ -7175,17 +7160,17 @@
         <v>652</v>
       </c>
       <c r="Q61" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R61" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S61" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>334</v>
       </c>
@@ -7233,7 +7218,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -7281,7 +7266,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>340</v>
       </c>
@@ -7376,17 +7361,17 @@
         <v>726</v>
       </c>
       <c r="Q65" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R65" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S65" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>344</v>
       </c>
@@ -7430,17 +7415,17 @@
         <v>652</v>
       </c>
       <c r="Q66" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R66" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S66" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -7488,7 +7473,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -7583,17 +7568,17 @@
         <v>652</v>
       </c>
       <c r="Q69" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R69" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S69" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -7688,10 +7673,10 @@
         <v>715</v>
       </c>
       <c r="Q71" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R71" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S71" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -7745,14 +7730,11 @@
         <v>652</v>
       </c>
       <c r="Q72" t="s">
-        <v>845</v>
-      </c>
-      <c r="R72" t="s">
         <v>830</v>
       </c>
       <c r="S72" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
-        <v>MIN</v>
+        <v>MAX</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -7801,15 +7783,12 @@
       <c r="P73" t="s">
         <v>652</v>
       </c>
-      <c r="Q73" t="s">
-        <v>831</v>
-      </c>
       <c r="R73" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="S73" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
-        <v>MAX</v>
+        <v>MIN</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -7859,17 +7838,17 @@
         <v>652</v>
       </c>
       <c r="Q74" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R74" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S74" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>369</v>
       </c>
@@ -7917,7 +7896,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>370</v>
       </c>
@@ -7961,10 +7940,10 @@
         <v>652</v>
       </c>
       <c r="Q76" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R76" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S76" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -8018,10 +7997,10 @@
         <v>652</v>
       </c>
       <c r="Q77" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R77" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S77" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -8075,17 +8054,17 @@
         <v>652</v>
       </c>
       <c r="Q78" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R78" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S78" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -8133,7 +8112,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>698</v>
       </c>
@@ -8228,17 +8207,17 @@
         <v>693</v>
       </c>
       <c r="Q81" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R81" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S81" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -8333,10 +8312,10 @@
         <v>652</v>
       </c>
       <c r="Q83" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R83" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S83" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -8390,10 +8369,10 @@
         <v>652</v>
       </c>
       <c r="Q84" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R84" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S84" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -8447,17 +8426,17 @@
         <v>682</v>
       </c>
       <c r="Q85" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R85" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S85" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
         <v>MAXMIN</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>386</v>
       </c>
@@ -8552,10 +8531,10 @@
         <v>652</v>
       </c>
       <c r="Q87" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R87" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S87" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -8711,7 +8690,7 @@
         <v>652</v>
       </c>
       <c r="Q90" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="S90" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9071,7 +9050,7 @@
         <v>652</v>
       </c>
       <c r="R97" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S97" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9230,10 +9209,10 @@
         <v>672</v>
       </c>
       <c r="Q100" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R100" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S100" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9290,7 +9269,7 @@
         <v>672</v>
       </c>
       <c r="Q101" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S101" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9347,10 +9326,10 @@
         <v>672</v>
       </c>
       <c r="Q102" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R102" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S102" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9407,10 +9386,10 @@
         <v>652</v>
       </c>
       <c r="Q103" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R103" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S103" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9464,7 +9443,7 @@
         <v>652</v>
       </c>
       <c r="R104" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S104" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9518,7 +9497,7 @@
         <v>652</v>
       </c>
       <c r="Q105" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="S105" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9572,10 +9551,10 @@
         <v>652</v>
       </c>
       <c r="Q106" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R106" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S106" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9643,8 +9622,14 @@
       <c r="D108" t="s">
         <v>649</v>
       </c>
+      <c r="G108" t="s">
+        <v>654</v>
+      </c>
+      <c r="H108" t="s">
+        <v>242</v>
+      </c>
       <c r="I108" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J108">
         <v>53.4</v>
@@ -9652,8 +9637,11 @@
       <c r="K108">
         <v>464.1</v>
       </c>
+      <c r="O108" t="s">
+        <v>652</v>
+      </c>
       <c r="R108" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S108" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9673,14 +9661,26 @@
       <c r="D109" t="s">
         <v>649</v>
       </c>
+      <c r="G109" t="s">
+        <v>654</v>
+      </c>
+      <c r="H109" t="s">
+        <v>242</v>
+      </c>
       <c r="I109" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J109">
         <v>258.39999999999998</v>
       </c>
       <c r="K109">
         <v>316.89999999999998</v>
+      </c>
+      <c r="O109" t="s">
+        <v>242</v>
+      </c>
+      <c r="P109" t="s">
+        <v>890</v>
       </c>
       <c r="S109" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9700,8 +9700,14 @@
       <c r="D110" t="s">
         <v>649</v>
       </c>
+      <c r="G110" t="s">
+        <v>654</v>
+      </c>
+      <c r="H110" t="s">
+        <v>242</v>
+      </c>
       <c r="I110" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J110">
         <v>81.7</v>
@@ -9709,8 +9715,11 @@
       <c r="K110">
         <v>471.7</v>
       </c>
+      <c r="O110" t="s">
+        <v>652</v>
+      </c>
       <c r="Q110" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="S110" t="str">
         <f>CONCATENATE(Tabelle1[[#This Row],[MAX]],Tabelle1[[#This Row],[MIN]])</f>
@@ -9736,10 +9745,10 @@
   <dimension ref="A1:Y119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I106" sqref="I106"/>
+      <selection pane="bottomRight" activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9753,19 +9762,19 @@
         <v>655</v>
       </c>
       <c r="I1" t="s">
+        <v>869</v>
+      </c>
+      <c r="L1" t="s">
+        <v>862</v>
+      </c>
+      <c r="N1" t="s">
+        <v>865</v>
+      </c>
+      <c r="O1" t="s">
+        <v>848</v>
+      </c>
+      <c r="R1" t="s">
         <v>870</v>
-      </c>
-      <c r="L1" t="s">
-        <v>863</v>
-      </c>
-      <c r="N1" t="s">
-        <v>866</v>
-      </c>
-      <c r="O1" t="s">
-        <v>849</v>
-      </c>
-      <c r="R1" t="s">
-        <v>871</v>
       </c>
       <c r="X1" t="s">
         <v>650</v>
@@ -9782,55 +9791,55 @@
         <v>408</v>
       </c>
       <c r="D2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G2" t="s">
+        <v>854</v>
+      </c>
+      <c r="H2" t="s">
         <v>855</v>
       </c>
-      <c r="H2" t="s">
-        <v>856</v>
-      </c>
       <c r="I2" t="s">
+        <v>849</v>
+      </c>
+      <c r="J2" t="s">
         <v>850</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>851</v>
       </c>
-      <c r="K2" t="s">
-        <v>852</v>
-      </c>
       <c r="L2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O2" t="s">
         <v>651</v>
       </c>
       <c r="P2" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q2" t="s">
         <v>853</v>
       </c>
-      <c r="Q2" t="s">
-        <v>854</v>
-      </c>
       <c r="R2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="S2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="W2">
         <v>-6365.8441280613406</v>
@@ -10092,7 +10101,7 @@
         <v>3.9984684246867701</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>planned_cdr_ltleds!A5</f>
         <v>Australia</v>
@@ -10107,7 +10116,7 @@
       </c>
       <c r="D6" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!Q5)</f>
-        <v>NoMAX</v>
+        <v>No</v>
       </c>
       <c r="E6" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!R5)</f>
@@ -10115,7 +10124,7 @@
       </c>
       <c r="F6" t="str">
         <f>planned_cdr_ltleds!S5</f>
-        <v>MAX</v>
+        <v/>
       </c>
       <c r="G6" s="2">
         <f>-planned_cdr_ltleds!J5</f>
@@ -10174,7 +10183,7 @@
         <v>-2.1770142355007778</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>planned_cdr_ltleds!A6</f>
         <v>Australia</v>
@@ -10189,7 +10198,7 @@
       </c>
       <c r="D7" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!Q6)</f>
-        <v>No</v>
+        <v>NoMAX</v>
       </c>
       <c r="E7" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!R6)</f>
@@ -10197,7 +10206,7 @@
       </c>
       <c r="F7" t="str">
         <f>planned_cdr_ltleds!S6</f>
-        <v/>
+        <v>MAX</v>
       </c>
       <c r="G7">
         <f>-planned_cdr_ltleds!J6</f>
@@ -10207,53 +10216,53 @@
         <f>-planned_cdr_ltleds!K6</f>
         <v>-204</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f>VLOOKUP(Tabelle2[[#This Row],[iso]],current_cdr_nghgi!$B$2:$J$199,5,FALSE)</f>
         <v>-68.728360264940903</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f>VLOOKUP(Tabelle2[[#This Row],[iso]],current_cdr_nghgi!$B$2:$J$199,8,FALSE)</f>
         <v>-7.0946254995583207</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f>SUM(Tabelle2[[#This Row],[lulucf_historical_forest]:[lulucf_historical_other]])</f>
         <v>-75.822985764499222</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f>Tabelle2[[#This Row],[lulucf_lts]]-Tabelle2[[#This Row],[lulucf_lts_other]]</f>
         <v>-196.90537450044167</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <f>Tabelle2[[#This Row],[lulucf_historical_other]]</f>
         <v>-7.0946254995583207</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <f>Tabelle2[[#This Row],[lulucf_lts_forest]]-Tabelle2[[#This Row],[lulucf_historical_forest]]</f>
         <v>-128.17701423550076</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <f t="shared" si="0"/>
         <v>0.311820390205582</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <f>Tabelle2[[#This Row],[correction]]*Tabelle2[[#This Row],[lulucf_historical_forest]]</f>
         <v>-21.430904116003688</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <f>Tabelle2[[#This Row],[lulucf_historical_forest_direct]]+Tabelle2[[#This Row],[lulucf_historical_other]]</f>
         <v>-28.525529615562007</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <f>IF(Tabelle2[[#This Row],[lulucf_forest_difference]]&gt;0,(Tabelle2[[#This Row],[correction]]*Tabelle2[[#This Row],[lulucf_lts_forest]]),(Tabelle2[[#This Row],[correction]]*Tabelle2[[#This Row],[lulucf_historical_forest]])+Tabelle2[[#This Row],[lulucf_forest_difference]])</f>
         <v>-149.60791835150445</v>
       </c>
-      <c r="S7" t="e">
-        <f>IF(Tabelle2[[#This Row],[lulucf_forest_difference]]&lt;0,Tabelle2[[#This Row],[lulucf_lts]]-#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T7" t="e">
+      <c r="S7" s="2">
+        <f>Tabelle2[[#This Row],[lulucf_lts_forest_direct]]+Tabelle2[[#This Row],[lulucf_lts_other]]</f>
+        <v>-156.70254385106279</v>
+      </c>
+      <c r="T7" s="2">
         <f>Tabelle2[[#This Row],[lulucf_lts_total_direct]]-Tabelle2[[#This Row],[lulucf_historical_total_direct]]</f>
-        <v>#REF!</v>
+        <v>-128.17701423550079</v>
       </c>
     </row>
     <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -10845,15 +10854,15 @@
       </c>
       <c r="D15" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!Q14)</f>
-        <v>NoMAX</v>
+        <v>No</v>
       </c>
       <c r="E15" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!R14)</f>
-        <v>No</v>
+        <v>NoMIN</v>
       </c>
       <c r="F15" t="str">
         <f>planned_cdr_ltleds!S14</f>
-        <v>MAX</v>
+        <v>MIN</v>
       </c>
       <c r="G15" s="2">
         <f>-planned_cdr_ltleds!J14</f>
@@ -10927,15 +10936,15 @@
       </c>
       <c r="D16" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!Q15)</f>
-        <v>No</v>
+        <v>NoMAX</v>
       </c>
       <c r="E16" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!R15)</f>
-        <v>NoMIN</v>
+        <v>No</v>
       </c>
       <c r="F16" t="str">
         <f>planned_cdr_ltleds!S15</f>
-        <v>MIN</v>
+        <v>MAX</v>
       </c>
       <c r="G16" s="2">
         <f>-planned_cdr_ltleds!J15</f>
@@ -12981,15 +12990,15 @@
       </c>
       <c r="D41" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!Q40)</f>
-        <v>YesMAX</v>
+        <v>Yes</v>
       </c>
       <c r="E41" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!R40)</f>
-        <v>Yes</v>
+        <v>YesMIN</v>
       </c>
       <c r="F41" t="str">
         <f>planned_cdr_ltleds!S40</f>
-        <v>MAX</v>
+        <v>MIN</v>
       </c>
       <c r="G41">
         <f>-planned_cdr_ltleds!J40</f>
@@ -13063,15 +13072,15 @@
       </c>
       <c r="D42" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!Q41)</f>
-        <v>Yes</v>
+        <v>YesMAX</v>
       </c>
       <c r="E42" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!R41)</f>
-        <v>YesMIN</v>
+        <v>Yes</v>
       </c>
       <c r="F42" t="str">
         <f>planned_cdr_ltleds!S41</f>
-        <v>MIN</v>
+        <v>MAX</v>
       </c>
       <c r="G42">
         <f>-planned_cdr_ltleds!J41</f>
@@ -14305,7 +14314,7 @@
       </c>
       <c r="G57">
         <f>-planned_cdr_ltleds!J56</f>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="H57">
         <f>-planned_cdr_ltleds!K56</f>
@@ -15605,15 +15614,15 @@
       </c>
       <c r="D73" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!Q72)</f>
-        <v>Yes</v>
+        <v>YesMAX</v>
       </c>
       <c r="E73" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!R72)</f>
-        <v>YesMIN</v>
+        <v>Yes</v>
       </c>
       <c r="F73" t="str">
         <f>planned_cdr_ltleds!S72</f>
-        <v>MIN</v>
+        <v>MAX</v>
       </c>
       <c r="G73">
         <f>-planned_cdr_ltleds!J72</f>
@@ -15687,15 +15696,15 @@
       </c>
       <c r="D74" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!Q73)</f>
-        <v>YesMAX</v>
+        <v>Yes</v>
       </c>
       <c r="E74" t="str">
         <f>CONCATENATE(Tabelle2[[#This Row],[EU]],planned_cdr_ltleds!R73)</f>
-        <v>Yes</v>
+        <v>YesMIN</v>
       </c>
       <c r="F74" t="str">
         <f>planned_cdr_ltleds!S73</f>
-        <v>MAX</v>
+        <v>MIN</v>
       </c>
       <c r="G74">
         <f>-planned_cdr_ltleds!J73</f>
@@ -18794,7 +18803,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="V112" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -18802,47 +18811,52 @@
         <v>648</v>
       </c>
       <c r="D113" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G113">
         <f>SUMIF(Tabelle2[MAX],$D$113,Tabelle2[novel_lts])</f>
-        <v>-951.7</v>
-      </c>
-      <c r="H113">
+        <v>-961.7</v>
+      </c>
+      <c r="H113" s="2">
         <f>SUMIF(Tabelle2[MAX],D113,Tabelle2[lulucf_lts])</f>
-        <v>-3773.311318</v>
-      </c>
-      <c r="I113">
+        <v>-3901.5643179999997</v>
+      </c>
+      <c r="I113" s="2">
         <f>SUMIF(Tabelle2[MAX],$D$113,Tabelle2[lulucf_historical_forest])</f>
         <v>-2630.9988051975824</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="2">
         <f>SUMIF(Tabelle2[MAX],$D$113,Tabelle2[lulucf_historical_other])</f>
         <v>-345.48280355042385</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="2">
         <f>SUM(I113:J113)</f>
         <v>-2976.4816087480062</v>
       </c>
-      <c r="N113">
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2">
         <f>SUMIF(Tabelle2[MAX],$D$113,Tabelle2[lulucf_forest_difference])</f>
-        <v>-796.82970925199379</v>
-      </c>
-      <c r="Q113">
+        <v>-925.08270925199395</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2">
         <f>SUMIF(Tabelle2[MAX],$D$113,Tabelle2[lulucf_historical_total_direct])</f>
         <v>-1165.881877617554</v>
       </c>
-      <c r="S113">
+      <c r="R113" s="2"/>
+      <c r="S113" s="2">
         <f>SUMIF(Tabelle2[MAX],$D$113,Tabelle2[lulucf_lts_total_direct])</f>
-        <v>-2026.8079257705926</v>
-      </c>
-      <c r="T113">
+        <v>-2153.5104571097258</v>
+      </c>
+      <c r="T113" s="2">
         <f>SUMIF(Tabelle2[MAX],$D$113,Tabelle2[lulucf_lts_additional])</f>
-        <v>-860.92604815303866</v>
+        <v>-987.62857949217187</v>
       </c>
       <c r="V113">
         <f>S113/Q113</f>
-        <v>1.7384333393296378</v>
+        <v>1.8471086123324623</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
@@ -18850,107 +18864,161 @@
         <v>648</v>
       </c>
       <c r="E114" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G114">
         <f>SUMIF(Tabelle2[MIN],$E$114,Tabelle2[novel_lts])</f>
         <v>-704.4</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="2">
         <f>SUMIF(Tabelle2[MIN],E114,Tabelle2[lulucf_lts])</f>
-        <v>-3738.5403179999998</v>
-      </c>
-      <c r="I114">
+        <v>-3736.2873180000001</v>
+      </c>
+      <c r="I114" s="2">
         <f>SUMIF(Tabelle2[MIN],$E$114,Tabelle2[lulucf_historical_forest])</f>
         <v>-2630.9988051975824</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="2">
         <f>SUMIF(Tabelle2[MIN],$E$114,Tabelle2[lulucf_historical_other])</f>
         <v>-345.48280355042385</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="2">
         <f>SUMIF(Tabelle2[MIN],$E$114,Tabelle2[lulucf_historical_total])</f>
         <v>-2976.4816087480058</v>
       </c>
-      <c r="N114">
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2">
         <f>SUMIF(Tabelle2[MIN],$E$114,Tabelle2[lulucf_forest_difference])</f>
-        <v>-762.53004578274692</v>
-      </c>
-      <c r="Q114">
+        <v>-760.27704578274688</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2">
         <f>SUMIF(Tabelle2[MIN],$E$114,Tabelle2[lulucf_historical_total_direct])</f>
         <v>-1165.881877617554</v>
       </c>
-      <c r="S114">
+      <c r="R114" s="2"/>
+      <c r="S114" s="2">
         <f>SUMIF(Tabelle2[MIN],$E$114,Tabelle2[lulucf_lts_total_direct])</f>
-        <v>-2002.3752066583502</v>
-      </c>
-      <c r="T114">
+        <v>-2001.672675319217</v>
+      </c>
+      <c r="T114" s="2">
         <f>SUMIF(Tabelle2[MIN],$E$114,Tabelle2[lulucf_lts_additional])</f>
-        <v>-836.49332904079654</v>
+        <v>-835.79079770166334</v>
       </c>
       <c r="V114">
         <f>S114/Q114</f>
-        <v>1.7174769117692663</v>
-      </c>
+        <v>1.7168743367120325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B116" t="s">
         <v>643</v>
       </c>
-      <c r="I116">
+      <c r="H116" s="2"/>
+      <c r="I116" s="2">
         <f>VLOOKUP(B116,current_cdr_nghgi!$B$2:$J$199,5,FALSE)</f>
         <v>-7079.8210906897912</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="2">
         <f>VLOOKUP(B116,current_cdr_nghgi!$B$2:$J$199,8,FALSE)</f>
         <v>-802.66436432443436</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="2">
         <f>SUM(I116:J116)</f>
         <v>-7882.4854550142254</v>
       </c>
-      <c r="L116">
-        <f>K114/K116</f>
-        <v>0.37760699029956335</v>
-      </c>
-      <c r="O116">
+      <c r="L116" s="3"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2">
         <f>$Y$2</f>
         <v>0.311820390205582</v>
       </c>
-      <c r="P116">
+      <c r="P116" s="2">
         <f>O116*I116</f>
         <v>-2207.6325750845999</v>
       </c>
-      <c r="Q116">
+      <c r="Q116" s="2">
         <f>P116+J116</f>
         <v>-3010.2969394090342</v>
       </c>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L117">
-        <f>1-L116</f>
-        <v>0.62239300970043665</v>
-      </c>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S118" t="s">
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="T118" s="2">
+        <f>Q116+T113</f>
+        <v>-3997.925518901206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="T118">
-        <f>Q116+T113</f>
-        <v>-3871.2229875620728</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S119" t="s">
-        <v>869</v>
-      </c>
-      <c r="T119">
+      <c r="T119" s="2">
         <f>Q116+T114</f>
-        <v>-3846.7902684498308</v>
+        <v>-3846.0877371106976</v>
       </c>
     </row>
   </sheetData>
